--- a/src/attributions/attributions_ig_traj_89.xlsx
+++ b/src/attributions/attributions_ig_traj_89.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1449641557942835</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01184677374072052</v>
+        <v>-0.08002405806976164</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.230202729308465</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0269385934144823</v>
+        <v>0.005108318808481852</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.157774261949829</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01176963987258418</v>
+        <v>-0.03860066713380397</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2075828185783251</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02420211355160792</v>
+        <v>0.01204929019375068</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06094098803716532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.01142042848705</v>
+        <v>-0.09806669489094141</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01229636434604111</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02839558913752778</v>
+        <v>-0.004991894583601985</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,82 +1079,82 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04446437677631426</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01184090862693395</v>
+        <v>0.03388509010844856</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.006056585975831554</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.02105942849895064</v>
+        <v>-0.004450682315163321</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03056874681491219</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02964272827127994</v>
+        <v>-0.03033852235949213</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.03456439921250479</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02860456678411108</v>
+        <v>0.06390532446227024</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.02659867202424431</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.04017195768745621</v>
+        <v>-0.1606877030427201</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.07871500957670378</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.07848621189368105</v>
+        <v>0.005945696286255524</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06023914848097141</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.002793951232791152</v>
+        <v>-0.01757312437285266</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.07897551879926892</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.008783501645747148</v>
+        <v>0.02712815448214431</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.0434460416777446</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.003906898256469241</v>
+        <v>0.03040979083744841</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04594451529409452</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04578878050004758</v>
+        <v>-0.08000625774407112</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
@@ -1220,73 +1220,73 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04144585408347103</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.04061190792745973</v>
+        <v>-0.06713017421494699</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02182646807514023</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.04445741541319886</v>
+        <v>-0.01884615699057904</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.02263754962391714</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00512813047958365</v>
+        <v>0.03283043049272813</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03616967539422405</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01915315955017639</v>
+        <v>0.01616340536772806</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01694492287398621</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01145383856634574</v>
+        <v>-0.007863134234805585</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.02819151524651156</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.003697357966899129</v>
+        <v>0.02816355631835672</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.0167481380033344</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.001365384414571915</v>
+        <v>0.04648971561772923</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04027009503825581</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02095776341306283</v>
+        <v>0.01093820471416725</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,100 +1328,100 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01051534783954276</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.02619823061346835</v>
+        <v>0.03395264743488322</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01468105289247713</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03417688459356654</v>
+        <v>0.03297448683683691</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01389031194573158</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01322010410404984</v>
+        <v>-0.01918322500336656</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.04349730583284731</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02154765203725288</v>
+        <v>-0.005621113725438998</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.009898828468937321</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.003229620991688137</v>
+        <v>-0.06400284214897392</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.0109657149773436</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.005177884318635519</v>
+        <v>-0.02088623205835872</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.07558799819850351</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.008768250452961066</v>
+        <v>0.03911788968558339</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.08937657361646349</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.001983620292766334</v>
+        <v>-0.03570638022466691</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.001753201687855301</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.02833850347790962</v>
+        <v>0.04835681117410522</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.0470410529826082</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.007954935133889788</v>
+        <v>0.01999236228472831</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.0256560769312649</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.001973789966535613</v>
+        <v>0.04098487980350489</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03239473819547633</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02082935489376128</v>
+        <v>0.01641101982812671</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,25 +1490,25 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.02039559760848126</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.005942875820941909</v>
+        <v>-0.01242405373375696</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.00543148769200911</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.007876129324472488</v>
+        <v>0.01687241999401279</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
@@ -1517,52 +1517,52 @@
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05442230996747359</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01103194786052463</v>
+        <v>-0.01297647463482977</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.006666584027607884</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01142937050710003</v>
+        <v>-0.008699428982887088</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05153832794812067</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.06439502158347354</v>
+        <v>-0.03139313018916433</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.01992368484076844</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
